--- a/testData/walmart.xlsx
+++ b/testData/walmart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/ZS_Playwright_GenAI/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="6_{57788A50-2754-4C97-9C7B-071C8F708F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555E82B0-9049-48D4-8F5D-34A5C5E077EA}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="6_{57788A50-2754-4C97-9C7B-071C8F708F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDDFEE06-3DFD-4EB6-9F9E-1B60FF68DF94}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>action</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>Sign in or create account button</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -76,14 +73,47 @@
     <t>Phone number of email input field</t>
   </si>
   <si>
-    <t>warnerbros@gmail.com</t>
+    <t>woodsblainem@gmail.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password radio button</t>
+  </si>
+  <si>
+    <t>Continue button</t>
+  </si>
+  <si>
+    <t>Password input field</t>
+  </si>
+  <si>
+    <t>Welcome@123456</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>Uncheck if using a public device</t>
+  </si>
+  <si>
+    <t>button#withpassword-sign-in-button</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>label[data-testid="auth-phone-or-email-label"]</t>
+  </si>
+  <si>
+    <t>Phone number or email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,14 +125,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,18 +151,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -424,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -493,10 +509,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
@@ -507,41 +523,124 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{C04067D6-98EF-4F65-8E39-532F342174E2}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{A6974877-F632-4493-A656-E9027C845876}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
